--- a/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课程评估表_ScienceTalk.xlsx
+++ b/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/课程评估表_ScienceTalk.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ting/WORK/EarlyChildhoodEducation/WEP/STEAM/Working docs/PEEP/PEEP_EDUCATOR/COLOR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ting/WORK/EarlyChildhoodEducation/WEP/STEAM/Working docs/PEEP/PEEP_EDUCATOR/COLOR/DemoClassDec16th/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1300" windowWidth="22260" windowHeight="12640" activeTab="1"/>
+    <workbookView xWindow="6540" yWindow="1300" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About ScienceTalk" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>＊在所有学习领域，语言对于学习和沟通都至关重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,50 @@
   </si>
   <si>
     <t>SI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -464,12 +508,56 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -826,7 +914,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -860,7 +948,9 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -873,7 +963,9 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
@@ -886,7 +978,9 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -899,7 +993,9 @@
       <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
@@ -912,7 +1008,9 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
@@ -920,7 +1018,9 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -932,7 +1032,9 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -942,7 +1044,9 @@
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -952,7 +1056,9 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -962,12 +1068,14 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -979,7 +1087,9 @@
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
@@ -992,7 +1102,9 @@
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1005,7 +1117,9 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1018,7 +1132,9 @@
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1026,10 +1142,18 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D4:D19">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",D4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>